--- a/m5out_stats_traffic.xlsx
+++ b/m5out_stats_traffic.xlsx
@@ -1,55 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280991DA-22CA-4DD0-8F3E-EFF5489262B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,26 +68,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,14 +483,1144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>injection_rate</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Synthetic_traffic</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Sim_Cycles</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>111_I</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>111_F</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>111_R</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>112_I</t>
+        </is>
+      </c>
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>112_F</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>112_R</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>113_I</t>
+        </is>
+      </c>
+      <c r="K1" s="7" t="inlineStr">
+        <is>
+          <t>113_F</t>
+        </is>
+      </c>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>113_R</t>
+        </is>
+      </c>
+      <c r="M1" s="6" t="inlineStr">
+        <is>
+          <t>121_I</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
+        <is>
+          <t>121_F</t>
+        </is>
+      </c>
+      <c r="O1" s="8" t="inlineStr">
+        <is>
+          <t>121_R</t>
+        </is>
+      </c>
+      <c r="P1" s="6" t="inlineStr">
+        <is>
+          <t>122_I</t>
+        </is>
+      </c>
+      <c r="Q1" s="7" t="inlineStr">
+        <is>
+          <t>122_F</t>
+        </is>
+      </c>
+      <c r="R1" s="8" t="inlineStr">
+        <is>
+          <t>122_R</t>
+        </is>
+      </c>
+      <c r="S1" s="6" t="inlineStr">
+        <is>
+          <t>123_I</t>
+        </is>
+      </c>
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>123_F</t>
+        </is>
+      </c>
+      <c r="U1" s="8" t="inlineStr">
+        <is>
+          <t>123_R</t>
+        </is>
+      </c>
+      <c r="V1" s="6" t="inlineStr">
+        <is>
+          <t>131_I</t>
+        </is>
+      </c>
+      <c r="W1" s="7" t="inlineStr">
+        <is>
+          <t>131_F</t>
+        </is>
+      </c>
+      <c r="X1" s="8" t="inlineStr">
+        <is>
+          <t>131_R</t>
+        </is>
+      </c>
+      <c r="Y1" s="6" t="inlineStr">
+        <is>
+          <t>132_I</t>
+        </is>
+      </c>
+      <c r="Z1" s="7" t="inlineStr">
+        <is>
+          <t>132_F</t>
+        </is>
+      </c>
+      <c r="AA1" s="8" t="inlineStr">
+        <is>
+          <t>132_R</t>
+        </is>
+      </c>
+      <c r="AB1" s="6" t="inlineStr">
+        <is>
+          <t>133_I</t>
+        </is>
+      </c>
+      <c r="AC1" s="7" t="inlineStr">
+        <is>
+          <t>133_F</t>
+        </is>
+      </c>
+      <c r="AD1" s="8" t="inlineStr">
+        <is>
+          <t>133_R</t>
+        </is>
+      </c>
+      <c r="AE1" s="6" t="inlineStr">
+        <is>
+          <t>211_I</t>
+        </is>
+      </c>
+      <c r="AF1" s="7" t="inlineStr">
+        <is>
+          <t>211_F</t>
+        </is>
+      </c>
+      <c r="AG1" s="8" t="inlineStr">
+        <is>
+          <t>211_R</t>
+        </is>
+      </c>
+      <c r="AH1" s="6" t="inlineStr">
+        <is>
+          <t>212_I</t>
+        </is>
+      </c>
+      <c r="AI1" s="7" t="inlineStr">
+        <is>
+          <t>212_F</t>
+        </is>
+      </c>
+      <c r="AJ1" s="8" t="inlineStr">
+        <is>
+          <t>212_R</t>
+        </is>
+      </c>
+      <c r="AK1" s="6" t="inlineStr">
+        <is>
+          <t>213_I</t>
+        </is>
+      </c>
+      <c r="AL1" s="7" t="inlineStr">
+        <is>
+          <t>213_F</t>
+        </is>
+      </c>
+      <c r="AM1" s="8" t="inlineStr">
+        <is>
+          <t>213_R</t>
+        </is>
+      </c>
+      <c r="AN1" s="6" t="inlineStr">
+        <is>
+          <t>221_I</t>
+        </is>
+      </c>
+      <c r="AO1" s="7" t="inlineStr">
+        <is>
+          <t>221_F</t>
+        </is>
+      </c>
+      <c r="AP1" s="8" t="inlineStr">
+        <is>
+          <t>221_R</t>
+        </is>
+      </c>
+      <c r="AQ1" s="6" t="inlineStr">
+        <is>
+          <t>222_I</t>
+        </is>
+      </c>
+      <c r="AR1" s="7" t="inlineStr">
+        <is>
+          <t>222_F</t>
+        </is>
+      </c>
+      <c r="AS1" s="8" t="inlineStr">
+        <is>
+          <t>222_R</t>
+        </is>
+      </c>
+      <c r="AT1" s="6" t="inlineStr">
+        <is>
+          <t>223_I</t>
+        </is>
+      </c>
+      <c r="AU1" s="7" t="inlineStr">
+        <is>
+          <t>223_F</t>
+        </is>
+      </c>
+      <c r="AV1" s="8" t="inlineStr">
+        <is>
+          <t>223_R</t>
+        </is>
+      </c>
+      <c r="AW1" s="6" t="inlineStr">
+        <is>
+          <t>231_I</t>
+        </is>
+      </c>
+      <c r="AX1" s="7" t="inlineStr">
+        <is>
+          <t>231_F</t>
+        </is>
+      </c>
+      <c r="AY1" s="8" t="inlineStr">
+        <is>
+          <t>231_R</t>
+        </is>
+      </c>
+      <c r="AZ1" s="6" t="inlineStr">
+        <is>
+          <t>232_I</t>
+        </is>
+      </c>
+      <c r="BA1" s="7" t="inlineStr">
+        <is>
+          <t>232_F</t>
+        </is>
+      </c>
+      <c r="BB1" s="8" t="inlineStr">
+        <is>
+          <t>232_R</t>
+        </is>
+      </c>
+      <c r="BC1" s="6" t="inlineStr">
+        <is>
+          <t>233_I</t>
+        </is>
+      </c>
+      <c r="BD1" s="7" t="inlineStr">
+        <is>
+          <t>233_F</t>
+        </is>
+      </c>
+      <c r="BE1" s="8" t="inlineStr">
+        <is>
+          <t>233_R</t>
+        </is>
+      </c>
+      <c r="BF1" s="6" t="inlineStr">
+        <is>
+          <t>311_I</t>
+        </is>
+      </c>
+      <c r="BG1" s="7" t="inlineStr">
+        <is>
+          <t>311_F</t>
+        </is>
+      </c>
+      <c r="BH1" s="8" t="inlineStr">
+        <is>
+          <t>311_R</t>
+        </is>
+      </c>
+      <c r="BI1" s="6" t="inlineStr">
+        <is>
+          <t>312_I</t>
+        </is>
+      </c>
+      <c r="BJ1" s="7" t="inlineStr">
+        <is>
+          <t>312_F</t>
+        </is>
+      </c>
+      <c r="BK1" s="8" t="inlineStr">
+        <is>
+          <t>312_R</t>
+        </is>
+      </c>
+      <c r="BL1" s="6" t="inlineStr">
+        <is>
+          <t>313_I</t>
+        </is>
+      </c>
+      <c r="BM1" s="7" t="inlineStr">
+        <is>
+          <t>313_F</t>
+        </is>
+      </c>
+      <c r="BN1" s="8" t="inlineStr">
+        <is>
+          <t>313_R</t>
+        </is>
+      </c>
+      <c r="BO1" s="6" t="inlineStr">
+        <is>
+          <t>321_I</t>
+        </is>
+      </c>
+      <c r="BP1" s="7" t="inlineStr">
+        <is>
+          <t>321_F</t>
+        </is>
+      </c>
+      <c r="BQ1" s="8" t="inlineStr">
+        <is>
+          <t>321_R</t>
+        </is>
+      </c>
+      <c r="BR1" s="6" t="inlineStr">
+        <is>
+          <t>322_I</t>
+        </is>
+      </c>
+      <c r="BS1" s="7" t="inlineStr">
+        <is>
+          <t>322_F</t>
+        </is>
+      </c>
+      <c r="BT1" s="8" t="inlineStr">
+        <is>
+          <t>322_R</t>
+        </is>
+      </c>
+      <c r="BU1" s="6" t="inlineStr">
+        <is>
+          <t>323_I</t>
+        </is>
+      </c>
+      <c r="BV1" s="7" t="inlineStr">
+        <is>
+          <t>323_F</t>
+        </is>
+      </c>
+      <c r="BW1" s="8" t="inlineStr">
+        <is>
+          <t>323_R</t>
+        </is>
+      </c>
+      <c r="BX1" s="6" t="inlineStr">
+        <is>
+          <t>331_I</t>
+        </is>
+      </c>
+      <c r="BY1" s="7" t="inlineStr">
+        <is>
+          <t>331_F</t>
+        </is>
+      </c>
+      <c r="BZ1" s="8" t="inlineStr">
+        <is>
+          <t>331_R</t>
+        </is>
+      </c>
+      <c r="CA1" s="6" t="inlineStr">
+        <is>
+          <t>332_I</t>
+        </is>
+      </c>
+      <c r="CB1" s="7" t="inlineStr">
+        <is>
+          <t>332_F</t>
+        </is>
+      </c>
+      <c r="CC1" s="8" t="inlineStr">
+        <is>
+          <t>332_R</t>
+        </is>
+      </c>
+      <c r="CD1" s="6" t="inlineStr">
+        <is>
+          <t>333_I</t>
+        </is>
+      </c>
+      <c r="CE1" s="7" t="inlineStr">
+        <is>
+          <t>333_F</t>
+        </is>
+      </c>
+      <c r="CF1" s="8" t="inlineStr">
+        <is>
+          <t>333_R</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="9.77734375" bestFit="1" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Injected</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>111_I</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>111_F</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>111_R</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>XXX_I</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Injected</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>112_I</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>112_F</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>112_R</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>XXX_F</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>113_I</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>113_F</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>113_R</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>XXX_R</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Received</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>121_I</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>121_F</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>121_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>122_I</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>122_F</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>122_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>123_I</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>123_F</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>123_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>131_I</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>131_F</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>131_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>132_I</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>132_F</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>132_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>133_I</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>133_F</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>133_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>211_I</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>211_F</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>211_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>212_I</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>212_F</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>212_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>213_I</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>213_F</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>213_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>221_I</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>221_F</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>221_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>222_I</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>222_F</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>222_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>223_I</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>223_F</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>223_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>231_I</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>231_F</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>231_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>232_I</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>232_F</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>232_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>233_I</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>233_F</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>233_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>311_I</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>311_F</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>311_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>312_I</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>312_F</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>312_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>313_I</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>313_F</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>313_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>321_I</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>321_F</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>321_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>322_I</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>322_F</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>322_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>323_I</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>323_F</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>323_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>331_I</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>331_F</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>331_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>332_I</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>332_F</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>332_R</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>333_I</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>333_F</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>333_R</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>